--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3753.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3753.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.246977014478838</v>
+        <v>0.7771000862121582</v>
       </c>
       <c r="B1">
-        <v>2.540948437824813</v>
+        <v>0.8826313018798828</v>
       </c>
       <c r="C1">
-        <v>4.313264871702169</v>
+        <v>3.512059688568115</v>
       </c>
       <c r="D1">
-        <v>3.396103003080002</v>
+        <v>2.117461681365967</v>
       </c>
       <c r="E1">
-        <v>1.154606282100737</v>
+        <v>1.041028141975403</v>
       </c>
     </row>
   </sheetData>
